--- a/01-Download-via-XLSX/in.xlsx
+++ b/01-Download-via-XLSX/in.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jared/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jared/Desktop/pr/no-projects/excel-to-x/01-Download-via-XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24D7750-A2CD-E841-B703-7C9B785CDDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0D12BA-DD98-444B-B28A-EF88F41EADC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1480" windowWidth="28040" windowHeight="17440" xr2:uid="{B946FCCE-C132-7742-A087-E8202B0B11CF}"/>
   </bookViews>
@@ -64,15 +64,6 @@
     <t>Franz</t>
   </si>
   <si>
-    <t>To Build a Fire</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
     <t>The Raven</t>
   </si>
   <si>
@@ -101,6 +92,15 @@
   </si>
   <si>
     <t>EPICAC</t>
+  </si>
+  <si>
+    <t>The Yellow Wallpaper</t>
+  </si>
+  <si>
+    <t>Gilman</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
   </si>
 </sst>
 </file>
@@ -142,12 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,9 +165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +205,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,12 +464,12 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
@@ -487,90 +486,90 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1905</v>
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>1892</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1948</v>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1905</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1915</v>
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>1948</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1908</v>
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1915</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2">
+        <v>11</v>
+      </c>
+      <c r="D6">
         <v>1845</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2">
+        <v>17</v>
+      </c>
+      <c r="D7">
         <v>1950</v>
       </c>
     </row>
